--- a/PPT03D.xlsx
+++ b/PPT03D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="263">
   <si>
     <t/>
   </si>
@@ -91,90 +91,396 @@
     <t>LAURIER X-TRA MX 10S</t>
   </si>
   <si>
+    <t>20140418</t>
+  </si>
+  <si>
+    <t>SOFTX GRVTY 23CM 20S</t>
+  </si>
+  <si>
+    <t>20140417</t>
+  </si>
+  <si>
+    <t>SOFTX GRVTY 23CM 28S</t>
+  </si>
+  <si>
+    <t>20133906</t>
+  </si>
+  <si>
+    <t>HER'S PRTX NAT WG22S</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20120202</t>
+  </si>
+  <si>
+    <t>LAURIER P/LINER NC40</t>
+  </si>
+  <si>
+    <t>10014567</t>
+  </si>
+  <si>
+    <t>LAURIER PL CLNF NP40</t>
+  </si>
+  <si>
+    <t>20106050</t>
+  </si>
+  <si>
+    <t>CHARM PL CL.FRSH 32S</t>
+  </si>
+  <si>
+    <t>20118829</t>
+  </si>
+  <si>
+    <t>CHRM PL COOL FRS 28S</t>
+  </si>
+  <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20132372</t>
+  </si>
+  <si>
+    <t>CHARM PL SRH+HBL 32S</t>
+  </si>
+  <si>
+    <t>PT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20090918</t>
+  </si>
+  <si>
+    <t>SOFTEX PL D.SRH 20'S</t>
+  </si>
+  <si>
+    <t>20038185</t>
+  </si>
+  <si>
+    <t>SOFTEX PL DS NP 44'S</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20081895</t>
+  </si>
+  <si>
+    <t>SOFTEX PL D.SRH 30'S</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>20106051</t>
   </si>
   <si>
     <t>SOFTEX DS WG 30'S/23</t>
   </si>
   <si>
-    <t>20133906</t>
-  </si>
-  <si>
-    <t>HER'S PRTX NAT WG22S</t>
-  </si>
-  <si>
-    <t>20120202</t>
-  </si>
-  <si>
-    <t>LAURIER P/LINER NC40</t>
-  </si>
-  <si>
-    <t>10014567</t>
-  </si>
-  <si>
-    <t>LAURIER PL CLNF NP40</t>
-  </si>
-  <si>
-    <t>20106050</t>
-  </si>
-  <si>
-    <t>CHARM PL CL.FRSH 32S</t>
-  </si>
-  <si>
-    <t>20118829</t>
-  </si>
-  <si>
-    <t>CHRM PL COOL FRS 28S</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20132372</t>
-  </si>
-  <si>
-    <t>CHARM PL SRH+HBL 32S</t>
-  </si>
-  <si>
-    <t>PT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20090918</t>
-  </si>
-  <si>
-    <t>SOFTEX PL D.SRH 20'S</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20038185</t>
-  </si>
-  <si>
-    <t>SOFTEX PL DS NP 44'S</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20081895</t>
-  </si>
-  <si>
-    <t>SOFTEX PL D.SRH 30'S</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20057364</t>
-  </si>
-  <si>
-    <t>KOTEX PL L&amp;W DS 32'S</t>
+    <t>20038184</t>
+  </si>
+  <si>
+    <t>SOFTEX D.SRH WG 20'S</t>
+  </si>
+  <si>
+    <t>20140429</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT DS 17/29</t>
+  </si>
+  <si>
+    <t>20140420</t>
+  </si>
+  <si>
+    <t>CHARM NGHT DS 11S/35</t>
+  </si>
+  <si>
+    <t>20130843</t>
+  </si>
+  <si>
+    <t>CHARM DN SRH+HBL 10S</t>
+  </si>
+  <si>
+    <t>20106053</t>
+  </si>
+  <si>
+    <t>SOFTEX DS WG 24'S/29</t>
+  </si>
+  <si>
+    <t>20077515</t>
+  </si>
+  <si>
+    <t>SOFTEX DS S.WG 16'S</t>
+  </si>
+  <si>
+    <t>20130846</t>
+  </si>
+  <si>
+    <t>SOFTEX DN.SRH 18S</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20067253</t>
+  </si>
+  <si>
+    <t>SOFTEX DS S.WG 12'S</t>
+  </si>
+  <si>
+    <t>20130848</t>
+  </si>
+  <si>
+    <t>SOFTEX DN.SRH 8S</t>
+  </si>
+  <si>
+    <t>20090955</t>
+  </si>
+  <si>
+    <t>SOFTEX D.SRH NW 18'S</t>
+  </si>
+  <si>
+    <t>20090167</t>
+  </si>
+  <si>
+    <t>CHARM EX.COMF MW 18S</t>
+  </si>
+  <si>
+    <t>20076572</t>
+  </si>
+  <si>
+    <t>CHARM EX.COMF MW 16S</t>
+  </si>
+  <si>
+    <t>20118830</t>
+  </si>
+  <si>
+    <t>CHRM DN SRH+HRBL 16S</t>
+  </si>
+  <si>
+    <t>20019342</t>
+  </si>
+  <si>
+    <t>LAURIER SLM GUARD 10</t>
+  </si>
+  <si>
+    <t>20016076</t>
+  </si>
+  <si>
+    <t>LAURIER SLM GUARD 20</t>
+  </si>
+  <si>
+    <t>20046527</t>
+  </si>
+  <si>
+    <t>LAURIER SLM GRD DY16</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20125494</t>
+  </si>
+  <si>
+    <t>SFTEX PW CMF/NGT 12S</t>
+  </si>
+  <si>
+    <t>20133708</t>
+  </si>
+  <si>
+    <t>SFTEX PW CMF/NGHT18S</t>
+  </si>
+  <si>
+    <t>20122925</t>
+  </si>
+  <si>
+    <t>LRER NR.CL NT.W12/35</t>
+  </si>
+  <si>
+    <t>20131300</t>
+  </si>
+  <si>
+    <t>LAURIER NAT.C 16S-30</t>
+  </si>
+  <si>
+    <t>20119730</t>
+  </si>
+  <si>
+    <t>HERS/P CNMRL 24'S-30</t>
+  </si>
+  <si>
+    <t>20131363</t>
+  </si>
+  <si>
+    <t>HER'S PRTX CN WG 12S</t>
+  </si>
+  <si>
+    <t>10038967</t>
+  </si>
+  <si>
+    <t>NICE FC TISU LVG1000</t>
+  </si>
+  <si>
+    <t>20028457</t>
+  </si>
+  <si>
+    <t>MULTI FC.TISSUE 600G</t>
+  </si>
+  <si>
+    <t>20049293</t>
+  </si>
+  <si>
+    <t>PASEO KTCH TWL 70S</t>
+  </si>
+  <si>
+    <t>20094211</t>
+  </si>
+  <si>
+    <t>IDM SERBET SRBGN 26S</t>
+  </si>
+  <si>
+    <t>20046211</t>
+  </si>
+  <si>
+    <t>IDM WET TISSUE 50'S</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>20107988</t>
+  </si>
+  <si>
+    <t>SANITER WIPES 50'S</t>
+  </si>
+  <si>
+    <t>20121228</t>
+  </si>
+  <si>
+    <t>NUVO WET TS BRU 50'S</t>
+  </si>
+  <si>
+    <t>20121229</t>
+  </si>
+  <si>
+    <t>NUVO WET TS MRH 50'S</t>
+  </si>
+  <si>
+    <t>20139610</t>
+  </si>
+  <si>
+    <t>NUVO WIPES NP 2X25S</t>
+  </si>
+  <si>
+    <t>20105673</t>
+  </si>
+  <si>
+    <t>PASEO WET TISSUE 25S</t>
+  </si>
+  <si>
+    <t>20027185</t>
+  </si>
+  <si>
+    <t>WETZ WIPES10 GRENTEA</t>
+  </si>
+  <si>
+    <t>20044874</t>
+  </si>
+  <si>
+    <t>DETTOL ASPTC WPS10'S</t>
+  </si>
+  <si>
+    <t>20115364</t>
+  </si>
+  <si>
+    <t>CHARM SP PANTIES 2S</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20133707</t>
+  </si>
+  <si>
+    <t>CHARM SP.PANT L-XL2S</t>
+  </si>
+  <si>
+    <t>20092849</t>
+  </si>
+  <si>
+    <t>SFTX CLN MENST M-L2S</t>
+  </si>
+  <si>
+    <t>20136913</t>
+  </si>
+  <si>
+    <t>SFTX CLN MENST M-L5S</t>
+  </si>
+  <si>
+    <t>20121204</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT WG 30/29</t>
+  </si>
+  <si>
+    <t>20045293</t>
+  </si>
+  <si>
+    <t>LAURIER RLX NGH 8/30</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20021323</t>
+  </si>
+  <si>
+    <t>LAURIER RLX NG 6/35</t>
+  </si>
+  <si>
+    <t>10036092</t>
+  </si>
+  <si>
+    <t>LAURIER RN WG 8'S/35</t>
+  </si>
+  <si>
+    <t>20135430</t>
+  </si>
+  <si>
+    <t>LAURIER RN 18'S 35CM</t>
+  </si>
+  <si>
+    <t>20048563</t>
+  </si>
+  <si>
+    <t>LAURIER R/N 8'S 40CM</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20114105</t>
+  </si>
+  <si>
+    <t>CHRM CL.FRSH 6S 42CM</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20099396</t>
+  </si>
+  <si>
+    <t>CHARM CL.FRSH NW 8'S</t>
+  </si>
+  <si>
+    <t>20098616</t>
+  </si>
+  <si>
+    <t>CHARM CL.FRSH NW 10S</t>
+  </si>
+  <si>
     <t>20091792</t>
   </si>
   <si>
@@ -199,313 +505,70 @@
     <t>SOFTX BR.COOL 23-14S</t>
   </si>
   <si>
+    <t>20017043</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT WG 7/42</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20121205</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT WG 18/35</t>
+  </si>
+  <si>
+    <t>20047284</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT WG 12/35</t>
+  </si>
+  <si>
+    <t>10032895</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT GW 11/35</t>
+  </si>
+  <si>
+    <t>10005974</t>
+  </si>
+  <si>
+    <t>CHARM NIGHT WG 9S/29</t>
+  </si>
+  <si>
     <t>20140120</t>
   </si>
   <si>
     <t>SOFTX BRY COOL 36-8S</t>
   </si>
   <si>
-    <t>20038184</t>
-  </si>
-  <si>
-    <t>SOFTEX D.SRH WG 20'S</t>
-  </si>
-  <si>
-    <t>20106053</t>
-  </si>
-  <si>
-    <t>SOFTEX DS WG 24'S/29</t>
-  </si>
-  <si>
-    <t>20077515</t>
-  </si>
-  <si>
-    <t>SOFTEX DS S.WG 16'S</t>
-  </si>
-  <si>
-    <t>20130846</t>
-  </si>
-  <si>
-    <t>SOFTEX DN.SRH 18S</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20067253</t>
-  </si>
-  <si>
-    <t>SOFTEX DS S.WG 12'S</t>
-  </si>
-  <si>
-    <t>20130848</t>
-  </si>
-  <si>
-    <t>SOFTEX DN.SRH 8S</t>
-  </si>
-  <si>
-    <t>20090955</t>
-  </si>
-  <si>
-    <t>SOFTEX D.SRH NW 18'S</t>
-  </si>
-  <si>
-    <t>20090167</t>
-  </si>
-  <si>
-    <t>CHARM EX.COMF MW 18S</t>
-  </si>
-  <si>
-    <t>20076572</t>
-  </si>
-  <si>
-    <t>CHARM EX.COMF MW 16S</t>
-  </si>
-  <si>
-    <t>20118830</t>
-  </si>
-  <si>
-    <t>CHRM DN SRH+HRBL 16S</t>
-  </si>
-  <si>
-    <t>20019342</t>
-  </si>
-  <si>
-    <t>LAURIER SLM GUARD 10</t>
-  </si>
-  <si>
-    <t>20016076</t>
-  </si>
-  <si>
-    <t>LAURIER SLM GUARD 20</t>
-  </si>
-  <si>
-    <t>20046527</t>
-  </si>
-  <si>
-    <t>LAURIER SLM GRD DY16</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20125494</t>
-  </si>
-  <si>
-    <t>SFTEX PW CMF/NGT 12S</t>
-  </si>
-  <si>
-    <t>20133708</t>
-  </si>
-  <si>
-    <t>SFTEX PW CMF/NGHT18S</t>
-  </si>
-  <si>
-    <t>20122925</t>
-  </si>
-  <si>
-    <t>LRER NR.CL NT.W12/35</t>
-  </si>
-  <si>
-    <t>20131300</t>
-  </si>
-  <si>
-    <t>LAURIER NAT.C 16S-30</t>
-  </si>
-  <si>
-    <t>20119730</t>
-  </si>
-  <si>
-    <t>HERS/P CNMRL 24'S-30</t>
-  </si>
-  <si>
-    <t>20131363</t>
-  </si>
-  <si>
-    <t>HER'S PRTX CN WG 12S</t>
-  </si>
-  <si>
-    <t>10038967</t>
-  </si>
-  <si>
-    <t>NICE FC TISU LVG1000</t>
-  </si>
-  <si>
-    <t>20028457</t>
-  </si>
-  <si>
-    <t>MULTI FC.TISSUE 600G</t>
-  </si>
-  <si>
-    <t>20049293</t>
-  </si>
-  <si>
-    <t>PASEO KTCH TWL 70S</t>
-  </si>
-  <si>
-    <t>20046211</t>
-  </si>
-  <si>
-    <t>IDM WET TISSUE 50'S</t>
-  </si>
-  <si>
-    <t>20107988</t>
-  </si>
-  <si>
-    <t>SANITER WIPES 50'S</t>
-  </si>
-  <si>
-    <t>20121228</t>
-  </si>
-  <si>
-    <t>NUVO WET TS BRU 50'S</t>
-  </si>
-  <si>
-    <t>20121229</t>
-  </si>
-  <si>
-    <t>NUVO WET TS MRH 50'S</t>
-  </si>
-  <si>
-    <t>20139610</t>
-  </si>
-  <si>
-    <t>NUVO WIPES NP 2X25S</t>
-  </si>
-  <si>
-    <t>20105673</t>
-  </si>
-  <si>
-    <t>PASEO WET TISSUE 25S</t>
-  </si>
-  <si>
-    <t>20027185</t>
-  </si>
-  <si>
-    <t>WETZ WIPES10 GRENTEA</t>
-  </si>
-  <si>
-    <t>20044874</t>
-  </si>
-  <si>
-    <t>DETTOL ASPTC WPS10'S</t>
-  </si>
-  <si>
-    <t>20115364</t>
-  </si>
-  <si>
-    <t>CHARM SP PANTIES 2S</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20133707</t>
-  </si>
-  <si>
-    <t>CHARM SP.PANT L-XL2S</t>
-  </si>
-  <si>
-    <t>20092849</t>
-  </si>
-  <si>
-    <t>SFTX CLN MENST M-L2S</t>
-  </si>
-  <si>
-    <t>20136913</t>
-  </si>
-  <si>
-    <t>SFTX CLN MENST M-L5S</t>
-  </si>
-  <si>
-    <t>20121204</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT WG 30/29</t>
-  </si>
-  <si>
-    <t>20045293</t>
-  </si>
-  <si>
-    <t>LAURIER RLX NGH 8/30</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20021323</t>
-  </si>
-  <si>
-    <t>LAURIER RLX NG 6/35</t>
-  </si>
-  <si>
-    <t>10036092</t>
-  </si>
-  <si>
-    <t>LAURIER RN WG 8'S/35</t>
-  </si>
-  <si>
-    <t>20135430</t>
-  </si>
-  <si>
-    <t>LAURIER RN 18'S 35CM</t>
-  </si>
-  <si>
-    <t>20048563</t>
-  </si>
-  <si>
-    <t>LAURIER R/N 8'S 40CM</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>10005974</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT WG 9S/29</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20098616</t>
-  </si>
-  <si>
-    <t>CHARM CL.FRSH NW 10S</t>
-  </si>
-  <si>
-    <t>20099396</t>
-  </si>
-  <si>
-    <t>CHARM CL.FRSH NW 8'S</t>
-  </si>
-  <si>
-    <t>20114105</t>
-  </si>
-  <si>
-    <t>CHRM CL.FRSH 6S 42CM</t>
-  </si>
-  <si>
-    <t>20130843</t>
-  </si>
-  <si>
-    <t>CHARM DN SRH+HBL 10S</t>
-  </si>
-  <si>
-    <t>20136040</t>
-  </si>
-  <si>
-    <t>CHARM DN SRH 8S/35CM</t>
-  </si>
-  <si>
-    <t>20121205</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT WG 18/35</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>20113228</t>
+  </si>
+  <si>
+    <t>SOFTEX DS 3IN1 16'S</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20139608</t>
+  </si>
+  <si>
+    <t>LAURIER RLX 30CM 24S</t>
+  </si>
+  <si>
+    <t>20021326</t>
+  </si>
+  <si>
+    <t>LAURIER RLX NG 16/30</t>
+  </si>
+  <si>
+    <t>20021324</t>
+  </si>
+  <si>
+    <t>LAURIER RLX NG 12/35</t>
   </si>
   <si>
     <t>20136041</t>
@@ -514,244 +577,211 @@
     <t>CHARM NIGHT WG 14/42</t>
   </si>
   <si>
-    <t>20021326</t>
-  </si>
-  <si>
-    <t>LAURIER RLX NG 16/30</t>
-  </si>
-  <si>
-    <t>20021324</t>
-  </si>
-  <si>
-    <t>LAURIER RLX NG 12/35</t>
-  </si>
-  <si>
-    <t>20113228</t>
-  </si>
-  <si>
-    <t>SOFTEX DS 3IN1 16'S</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20139608</t>
-  </si>
-  <si>
-    <t>LAURIER RLX 30CM 24S</t>
-  </si>
-  <si>
     <t>10010189</t>
   </si>
   <si>
     <t>CHARM NIGHT WG 18/29</t>
   </si>
   <si>
-    <t>20047284</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT WG 12/35</t>
-  </si>
-  <si>
-    <t>10032895</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT GW 11/35</t>
-  </si>
-  <si>
-    <t>20017043</t>
-  </si>
-  <si>
-    <t>CHARM NIGHT WG 7/42</t>
-  </si>
-  <si>
-    <t>20094211</t>
-  </si>
-  <si>
-    <t>IDM SERBET SRBGN 26S</t>
+    <t>20115506</t>
+  </si>
+  <si>
+    <t>IDM TISU BMB ROL 4'S</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>20140801</t>
+  </si>
+  <si>
+    <t>IDM TISU ROL 8'S</t>
+  </si>
+  <si>
+    <t>20029296</t>
+  </si>
+  <si>
+    <t>IDM WET TISSUE 10'S</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>20113001</t>
+  </si>
+  <si>
+    <t>IDM ALCHOL WIPE 10'S</t>
+  </si>
+  <si>
+    <t>PT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20098229</t>
+  </si>
+  <si>
+    <t>WATERU BMBO TISS 6'S</t>
+  </si>
+  <si>
+    <t>20140679</t>
+  </si>
+  <si>
+    <t>IDM FC.TISSUE 3X80'S</t>
+  </si>
+  <si>
+    <t>20124826</t>
+  </si>
+  <si>
+    <t>FAVOUR TISU WJH 120S</t>
+  </si>
+  <si>
+    <t>20103297</t>
+  </si>
+  <si>
+    <t>IDM FAC.TISSUE NP200</t>
+  </si>
+  <si>
+    <t>10038692</t>
+  </si>
+  <si>
+    <t>MULTI TIS.NON.PERPUM</t>
+  </si>
+  <si>
+    <t>20098520</t>
+  </si>
+  <si>
+    <t>IDM TISSUE PNGST 150</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>20045887</t>
   </si>
   <si>
     <t>IDM TISU DP/HND 150S</t>
   </si>
   <si>
-    <t>20098520</t>
-  </si>
-  <si>
-    <t>IDM TISSUE PNGST 150</t>
-  </si>
-  <si>
-    <t>20126522</t>
-  </si>
-  <si>
-    <t>IDM BB.KIT TSU 2X75S</t>
-  </si>
-  <si>
-    <t>20115506</t>
-  </si>
-  <si>
-    <t>IDM TISU BMB ROL 4'S</t>
-  </si>
-  <si>
-    <t>20029296</t>
-  </si>
-  <si>
-    <t>IDM WET TISSUE 10'S</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20113001</t>
-  </si>
-  <si>
-    <t>IDM ALCHOL WIPE 10'S</t>
-  </si>
-  <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20098229</t>
-  </si>
-  <si>
-    <t>WATERU BMBO TISS 6'S</t>
-  </si>
-  <si>
-    <t>20026945</t>
-  </si>
-  <si>
-    <t>NICE M/PURPS TSSU200</t>
-  </si>
-  <si>
-    <t>20124826</t>
-  </si>
-  <si>
-    <t>FAVOUR TISU WJH 120S</t>
-  </si>
-  <si>
-    <t>20103297</t>
-  </si>
-  <si>
-    <t>IDM FAC.TISSUE NP200</t>
-  </si>
-  <si>
-    <t>10038692</t>
-  </si>
-  <si>
-    <t>MULTI TIS.NON.PERPUM</t>
-  </si>
-  <si>
     <t>10005468</t>
   </si>
   <si>
     <t>PASEO FC.SOFT 510PLY</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>20026897</t>
   </si>
   <si>
     <t>TESSA FAC.TISSUE 260</t>
   </si>
   <si>
+    <t>20034036</t>
+  </si>
+  <si>
+    <t>PASEO SMART 540PLY</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20006422</t>
+  </si>
+  <si>
+    <t>TESSA FAC.LOONEY TP9</t>
+  </si>
+  <si>
+    <t>20001221</t>
+  </si>
+  <si>
+    <t>PASEO TRVL.PC TISSUE</t>
+  </si>
+  <si>
+    <t>20133704</t>
+  </si>
+  <si>
+    <t>IDM BB.FCL TISSU 70S</t>
+  </si>
+  <si>
     <t>20122914</t>
   </si>
   <si>
     <t>FAVOUR CH FC TIS200S</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20020128</t>
+  </si>
+  <si>
+    <t>NICE FC/TISUE NP250S</t>
+  </si>
+  <si>
+    <t>20113083</t>
+  </si>
+  <si>
+    <t>TESSA FC.TISU 2X200S</t>
+  </si>
+  <si>
+    <t>20128974</t>
+  </si>
+  <si>
+    <t>MONTISS FC TISUE200S</t>
+  </si>
+  <si>
+    <t>20131625</t>
+  </si>
+  <si>
+    <t>LARISST FCL.TIS 250S</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20035998</t>
+  </si>
+  <si>
+    <t>INDOMRET TRVL PACK50</t>
+  </si>
+  <si>
+    <t>20115171</t>
+  </si>
+  <si>
+    <t>IDM TISU BAMBU 150'S</t>
+  </si>
+  <si>
+    <t>10014168</t>
+  </si>
+  <si>
+    <t>NICE BUY1FREE1 2X200</t>
+  </si>
+  <si>
+    <t>20027166</t>
+  </si>
+  <si>
+    <t>IDM FAC.TISSUE NP220</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20114021</t>
+  </si>
+  <si>
+    <t>IDM TISU WJH PRM 100</t>
+  </si>
+  <si>
     <t>20063288</t>
   </si>
   <si>
     <t>PASEO PURE SOFT 130S</t>
   </si>
   <si>
-    <t>20034036</t>
-  </si>
-  <si>
-    <t>PASEO SMART 540PLY</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20006422</t>
-  </si>
-  <si>
-    <t>TESSA FAC.LOONEY TP9</t>
-  </si>
-  <si>
-    <t>20001221</t>
-  </si>
-  <si>
-    <t>PASEO TRVL.PC TISSUE</t>
-  </si>
-  <si>
-    <t>20133704</t>
-  </si>
-  <si>
-    <t>IDM BB.FCL TISSU 70S</t>
-  </si>
-  <si>
-    <t>20020128</t>
-  </si>
-  <si>
-    <t>NICE FC/TISUE NP250S</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20091704</t>
-  </si>
-  <si>
-    <t>PASEO UL.SOFT 100'S</t>
-  </si>
-  <si>
-    <t>20113083</t>
-  </si>
-  <si>
-    <t>TESSA FC.TISU 2X200S</t>
-  </si>
-  <si>
-    <t>20128974</t>
-  </si>
-  <si>
-    <t>MONTISS FC TISUE200S</t>
-  </si>
-  <si>
-    <t>20131625</t>
-  </si>
-  <si>
-    <t>LARISST FCL.TIS 250S</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20035998</t>
-  </si>
-  <si>
-    <t>INDOMRET TRVL PACK50</t>
-  </si>
-  <si>
-    <t>20115171</t>
-  </si>
-  <si>
-    <t>IDM TISU BAMBU 150'S</t>
-  </si>
-  <si>
-    <t>10014168</t>
-  </si>
-  <si>
-    <t>NICE BUY1FREE1 2X200</t>
+    <t>20048847</t>
+  </si>
+  <si>
+    <t>IDM FAC.TISSUE NP900</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>20027167</t>
@@ -760,36 +790,6 @@
     <t>IDM FAC.TISSUE NP400</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20027166</t>
-  </si>
-  <si>
-    <t>IDM FAC.TISSUE NP220</t>
-  </si>
-  <si>
-    <t>20114021</t>
-  </si>
-  <si>
-    <t>IDM TISU WJH PRM 100</t>
-  </si>
-  <si>
-    <t>20044698</t>
-  </si>
-  <si>
-    <t>IDM TISS/R 6'S NEMB</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20048847</t>
-  </si>
-  <si>
-    <t>IDM FAC.TISSUE NP900</t>
-  </si>
-  <si>
     <t>20124726</t>
   </si>
   <si>
@@ -800,15 +800,6 @@
   </si>
   <si>
     <t>LRST FAC.TIS 2X200S</t>
-  </si>
-  <si>
-    <t>20121206</t>
-  </si>
-  <si>
-    <t>CHRM DN SRH+HRBL 18S</t>
-  </si>
-  <si>
-    <t>998</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1192,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
@@ -1429,7 +1420,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,21 +1434,21 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
@@ -1466,7 +1457,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
@@ -1474,10 +1465,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1486,18 +1477,18 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -1506,10 +1497,10 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>41</v>
@@ -1546,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
@@ -1574,10 +1565,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1586,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>12</v>
@@ -1594,10 +1585,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -1606,7 +1597,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
@@ -1614,10 +1605,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -1629,15 +1620,15 @@
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -1649,15 +1640,15 @@
         <v>8</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -1669,15 +1660,15 @@
         <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1694,10 +1685,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -1709,24 +1700,24 @@
         <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>12</v>
@@ -1734,10 +1725,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -1746,7 +1737,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1754,10 +1745,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -1766,10 +1757,10 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,18 +1777,18 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -1806,18 +1797,18 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -1826,47 +1817,47 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -1874,59 +1865,59 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>12</v>
@@ -1934,22 +1925,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,70 +1954,70 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>12</v>
@@ -2034,39 +2025,39 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>19</v>
@@ -2074,39 +2065,39 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>12</v>
@@ -2114,62 +2105,62 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2183,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -2203,7 +2194,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>11</v>
@@ -2223,7 +2214,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
@@ -2243,13 +2234,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2263,10 +2254,10 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -2283,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2303,13 +2294,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,7 +2480,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2609,7 +2600,7 @@
         <v>18</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,10 +2617,10 @@
         <v>151</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2643,33 +2634,33 @@
         <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,13 +2674,13 @@
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,13 +2694,13 @@
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,73 +2714,73 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2803,13 +2794,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2823,13 +2814,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2843,50 +2834,50 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -2894,22 +2885,22 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2923,13 +2914,13 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2949,7 +2940,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,7 +3037,7 @@
         <v>197</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>5</v>
@@ -3066,7 +3057,7 @@
         <v>197</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>12</v>
@@ -3089,7 +3080,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3109,7 +3100,7 @@
         <v>8</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3449,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3489,7 +3480,7 @@
         <v>8</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3529,26 +3520,6 @@
         <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PPT03D.xlsx
+++ b/PPT03D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="265">
   <si>
     <t/>
   </si>
@@ -583,13 +583,19 @@
     <t>CHARM NIGHT WG 18/29</t>
   </si>
   <si>
+    <t>20140802</t>
+  </si>
+  <si>
+    <t>IDM TISU DAPUR 1+1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>20115506</t>
   </si>
   <si>
     <t>IDM TISU BMB ROL 4'S</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>20140801</t>
@@ -1192,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -2897,10 +2903,10 @@
         <v>192</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2917,10 +2923,10 @@
         <v>192</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2934,53 +2940,53 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2994,10 +3000,10 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>12</v>
@@ -3014,10 +3020,10 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>12</v>
@@ -3034,13 +3040,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,13 +3060,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,30 +3080,30 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>5</v>
@@ -3114,13 +3120,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3134,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>12</v>
@@ -3154,10 +3160,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
@@ -3165,19 +3171,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
@@ -3194,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>12</v>
@@ -3214,13 +3220,13 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,30 +3240,30 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>12</v>
@@ -3274,10 +3280,10 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>12</v>
@@ -3294,10 +3300,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>12</v>
@@ -3314,33 +3320,33 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3354,10 +3360,10 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3374,13 +3380,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3394,30 +3400,30 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -3434,13 +3440,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,33 +3460,33 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3494,13 +3500,13 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3514,12 +3520,32 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/PPT03D.xlsx
+++ b/PPT03D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="267">
   <si>
     <t/>
   </si>
@@ -622,10 +622,10 @@
     <t>PT,(E-1B)</t>
   </si>
   <si>
-    <t>20098229</t>
-  </si>
-  <si>
-    <t>WATERU BMBO TISS 6'S</t>
+    <t>20141206</t>
+  </si>
+  <si>
+    <t>LARISST M.W WIPE 8X8</t>
   </si>
   <si>
     <t>20140679</t>
@@ -646,25 +646,64 @@
     <t>IDM FAC.TISSUE NP200</t>
   </si>
   <si>
+    <t>20133704</t>
+  </si>
+  <si>
+    <t>IDM BB.FCL TISSU 70S</t>
+  </si>
+  <si>
+    <t>20141207</t>
+  </si>
+  <si>
+    <t>WATERU WHT BMBOO 50S</t>
+  </si>
+  <si>
+    <t>20098520</t>
+  </si>
+  <si>
+    <t>IDM TISSUE PNGST 150</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>20045887</t>
+  </si>
+  <si>
+    <t>IDM TISU DP/HND 150S</t>
+  </si>
+  <si>
     <t>10038692</t>
   </si>
   <si>
     <t>MULTI TIS.NON.PERPUM</t>
   </si>
   <si>
-    <t>20098520</t>
-  </si>
-  <si>
-    <t>IDM TISSUE PNGST 150</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>20045887</t>
-  </si>
-  <si>
-    <t>IDM TISU DP/HND 150S</t>
+    <t>20122914</t>
+  </si>
+  <si>
+    <t>FAVOUR CH FC TIS200S</t>
+  </si>
+  <si>
+    <t>20020128</t>
+  </si>
+  <si>
+    <t>NICE FC/TISUE NP250S</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20026897</t>
+  </si>
+  <si>
+    <t>TESSA FAC.TISSUE 260</t>
+  </si>
+  <si>
+    <t>20034036</t>
+  </si>
+  <si>
+    <t>PASEO SMART 540PLY</t>
   </si>
   <si>
     <t>10005468</t>
@@ -673,19 +712,40 @@
     <t>PASEO FC.SOFT 510PLY</t>
   </si>
   <si>
-    <t>20026897</t>
-  </si>
-  <si>
-    <t>TESSA FAC.TISSUE 260</t>
-  </si>
-  <si>
-    <t>20034036</t>
-  </si>
-  <si>
-    <t>PASEO SMART 540PLY</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>20139653</t>
+  </si>
+  <si>
+    <t>LRST FAC.TIS 2X200S</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20113083</t>
+  </si>
+  <si>
+    <t>TESSA FC.TISU 2X200S</t>
+  </si>
+  <si>
+    <t>10014168</t>
+  </si>
+  <si>
+    <t>NICE BUY1FREE1 2X200</t>
+  </si>
+  <si>
+    <t>20128974</t>
+  </si>
+  <si>
+    <t>MONTISS FC TISUE200S</t>
+  </si>
+  <si>
+    <t>20035998</t>
+  </si>
+  <si>
+    <t>INDOMRET TRVL PACK50</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>20006422</t>
@@ -700,37 +760,25 @@
     <t>PASEO TRVL.PC TISSUE</t>
   </si>
   <si>
-    <t>20133704</t>
-  </si>
-  <si>
-    <t>IDM BB.FCL TISSU 70S</t>
-  </si>
-  <si>
-    <t>20122914</t>
-  </si>
-  <si>
-    <t>FAVOUR CH FC TIS200S</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20020128</t>
-  </si>
-  <si>
-    <t>NICE FC/TISUE NP250S</t>
-  </si>
-  <si>
-    <t>20113083</t>
-  </si>
-  <si>
-    <t>TESSA FC.TISU 2X200S</t>
-  </si>
-  <si>
-    <t>20128974</t>
-  </si>
-  <si>
-    <t>MONTISS FC TISUE200S</t>
+    <t>20063288</t>
+  </si>
+  <si>
+    <t>PASEO PURE SOFT 130S</t>
+  </si>
+  <si>
+    <t>20027166</t>
+  </si>
+  <si>
+    <t>IDM FAC.TISSUE NP220</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20114021</t>
+  </si>
+  <si>
+    <t>IDM TISU WJH PRM 100</t>
   </si>
   <si>
     <t>20131625</t>
@@ -739,48 +787,12 @@
     <t>LARISST FCL.TIS 250S</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20035998</t>
-  </si>
-  <si>
-    <t>INDOMRET TRVL PACK50</t>
-  </si>
-  <si>
     <t>20115171</t>
   </si>
   <si>
     <t>IDM TISU BAMBU 150'S</t>
   </si>
   <si>
-    <t>10014168</t>
-  </si>
-  <si>
-    <t>NICE BUY1FREE1 2X200</t>
-  </si>
-  <si>
-    <t>20027166</t>
-  </si>
-  <si>
-    <t>IDM FAC.TISSUE NP220</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20114021</t>
-  </si>
-  <si>
-    <t>IDM TISU WJH PRM 100</t>
-  </si>
-  <si>
-    <t>20063288</t>
-  </si>
-  <si>
-    <t>PASEO PURE SOFT 130S</t>
-  </si>
-  <si>
     <t>20048847</t>
   </si>
   <si>
@@ -790,22 +802,16 @@
     <t>22</t>
   </si>
   <si>
+    <t>20124726</t>
+  </si>
+  <si>
+    <t>IDM F/T 2PLY 3X180'S</t>
+  </si>
+  <si>
     <t>20027167</t>
   </si>
   <si>
     <t>IDM FAC.TISSUE NP400</t>
-  </si>
-  <si>
-    <t>20124726</t>
-  </si>
-  <si>
-    <t>IDM F/T 2PLY 3X180'S</t>
-  </si>
-  <si>
-    <t>20139653</t>
-  </si>
-  <si>
-    <t>LRST FAC.TIS 2X200S</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -3086,7 +3092,7 @@
         <v>49</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,30 +3106,30 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3140,13 +3146,13 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,10 +3166,10 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
@@ -3180,10 +3186,10 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
@@ -3191,19 +3197,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E100" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>12</v>
@@ -3220,10 +3226,10 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>12</v>
@@ -3240,13 +3246,13 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3260,10 +3266,10 @@
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>12</v>
@@ -3271,22 +3277,22 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3300,10 +3306,10 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>12</v>
@@ -3320,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>12</v>
@@ -3340,30 +3346,30 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E108" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -3380,13 +3386,13 @@
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,10 +3406,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>12</v>
@@ -3420,30 +3426,30 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -3460,13 +3466,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,50 +3486,50 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>202</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>258</v>
-      </c>
       <c r="E116" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -3540,13 +3546,33 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
